--- a/spreadsheet/macrofree/waf.ko.xlsx
+++ b/spreadsheet/macrofree/waf.ko.xlsx
@@ -8311,7 +8311,7 @@
       </c>
       <c r="D148" s="18" t="inlineStr">
         <is>
-          <t>AKS 애플리케이션 라우팅 추가 기능 사용 안 함</t>
+          <t>AKS HTTP 라우팅 추가 기능을 사용하지 말고, 애플리케이션 라우팅 추가 기능과 함께 관리되는 NGINX 수신을 대신 사용합니다.</t>
         </is>
       </c>
       <c r="E148" s="18" t="n"/>
@@ -8387,11 +8387,7 @@
         </is>
       </c>
       <c r="J149" s="13" t="n"/>
-      <c r="K149" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K149" s="19" t="n"/>
       <c r="L149" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>

--- a/spreadsheet/macrofree/waf.ko.xlsx
+++ b/spreadsheet/macrofree/waf.ko.xlsx
@@ -13539,7 +13539,7 @@
       </c>
       <c r="D248" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="E248" s="18" t="n"/>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="D254" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다. </t>
+          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="E254" s="18" t="n"/>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="D279" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E279" s="18" t="n"/>
@@ -16386,12 +16386,12 @@
       </c>
       <c r="C300" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D300" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E300" s="18" t="n"/>
@@ -16413,13 +16413,13 @@
       </c>
       <c r="J300" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K300" s="19" t="n"/>
       <c r="L300" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M300" s="20" t="n"/>
@@ -16436,17 +16436,17 @@
       </c>
       <c r="B301" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C301" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D301" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E301" s="18" t="n"/>
@@ -16468,13 +16468,13 @@
       </c>
       <c r="J301" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K301" s="19" t="n"/>
       <c r="L301" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M301" s="20" t="n"/>
@@ -16491,23 +16491,23 @@
       </c>
       <c r="B302" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C302" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D302" s="18" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
         </is>
       </c>
       <c r="E302" s="18" t="n"/>
       <c r="F302" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -16523,17 +16523,13 @@
       </c>
       <c r="J302" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K302" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K302" s="19" t="n"/>
       <c r="L302" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M302" s="20" t="n"/>
@@ -16555,18 +16551,18 @@
       </c>
       <c r="C303" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D303" s="18" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="E303" s="18" t="n"/>
       <c r="F303" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -16588,7 +16584,7 @@
       <c r="K303" s="19" t="n"/>
       <c r="L303" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M303" s="20" t="n"/>
@@ -16610,18 +16606,18 @@
       </c>
       <c r="C304" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D304" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E304" s="18" t="n"/>
       <c r="F304" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -16635,15 +16631,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J304" s="13" t="n"/>
-      <c r="K304" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J304" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K304" s="19" t="n"/>
       <c r="L304" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M304" s="20" t="n"/>
@@ -16665,18 +16661,18 @@
       </c>
       <c r="C305" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D305" s="18" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="E305" s="18" t="n"/>
       <c r="F305" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -16690,15 +16686,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J305" s="13" t="n"/>
+      <c r="J305" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="K305" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
         </is>
       </c>
       <c r="L305" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M305" s="20" t="n"/>
@@ -16720,12 +16720,12 @@
       </c>
       <c r="C306" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D306" s="18" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E306" s="18" t="n"/>
@@ -16745,15 +16745,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J306" s="13" t="n"/>
-      <c r="K306" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J306" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K306" s="19" t="n"/>
       <c r="L306" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M306" s="20" t="n"/>
@@ -16775,18 +16775,18 @@
       </c>
       <c r="C307" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D307" s="18" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E307" s="18" t="n"/>
       <c r="F307" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -16800,15 +16800,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J307" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K307" s="19" t="n"/>
+      <c r="J307" s="13" t="n"/>
+      <c r="K307" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L307" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M307" s="20" t="n"/>
@@ -16830,18 +16830,18 @@
       </c>
       <c r="C308" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D308" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="E308" s="18" t="n"/>
       <c r="F308" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -16850,20 +16850,20 @@
         </is>
       </c>
       <c r="H308" s="18" t="n"/>
-      <c r="I308" s="13" t="n"/>
-      <c r="J308" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="I308" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J308" s="13" t="n"/>
       <c r="K308" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L308" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M308" s="20" t="n"/>
@@ -16890,7 +16890,7 @@
       </c>
       <c r="D309" s="18" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E309" s="18" t="n"/>
@@ -16910,15 +16910,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J309" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K309" s="19" t="n"/>
+      <c r="J309" s="13" t="n"/>
+      <c r="K309" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
+        </is>
+      </c>
       <c r="L309" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M309" s="20" t="n"/>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="D310" s="18" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E310" s="18" t="n"/>
@@ -16967,13 +16967,13 @@
       </c>
       <c r="J310" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K310" s="19" t="n"/>
       <c r="L310" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M310" s="20" t="n"/>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="B311" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C311" s="18" t="inlineStr">
@@ -17000,7 +17000,7 @@
       </c>
       <c r="D311" s="18" t="inlineStr">
         <is>
-          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="E311" s="18" t="n"/>
@@ -17015,24 +17015,20 @@
         </is>
       </c>
       <c r="H311" s="18" t="n"/>
-      <c r="I311" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I311" s="13" t="n"/>
       <c r="J311" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K311" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
         </is>
       </c>
       <c r="L311" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M311" s="20" t="n"/>
@@ -17049,17 +17045,17 @@
       </c>
       <c r="B312" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C312" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>
@@ -17081,13 +17077,13 @@
       </c>
       <c r="J312" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K312" s="19" t="n"/>
       <c r="L312" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M312" s="20" t="n"/>
@@ -17104,17 +17100,17 @@
       </c>
       <c r="B313" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C313" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D313" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="E313" s="18" t="n"/>
@@ -17134,11 +17130,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J313" s="13" t="n"/>
+      <c r="J313" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="K313" s="19" t="n"/>
       <c r="L313" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M313" s="20" t="n"/>
@@ -17155,23 +17155,23 @@
       </c>
       <c r="B314" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C314" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D314" s="18" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="E314" s="18" t="n"/>
       <c r="F314" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -17185,11 +17185,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J314" s="13" t="n"/>
-      <c r="K314" s="19" t="n"/>
+      <c r="J314" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K314" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L314" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M314" s="20" t="n"/>
@@ -17206,7 +17214,7 @@
       </c>
       <c r="B315" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C315" s="18" t="inlineStr">
@@ -17216,7 +17224,7 @@
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
@@ -17238,17 +17246,13 @@
       </c>
       <c r="J315" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K315" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
+      <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -17265,7 +17269,7 @@
       </c>
       <c r="B316" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C316" s="18" t="inlineStr">
@@ -17275,7 +17279,7 @@
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
@@ -17299,7 +17303,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17316,7 +17320,7 @@
       </c>
       <c r="B317" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C317" s="18" t="inlineStr">
@@ -17326,13 +17330,13 @@
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
       <c r="F317" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17350,7 +17354,7 @@
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17367,7 +17371,7 @@
       </c>
       <c r="B318" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C318" s="18" t="inlineStr">
@@ -17377,7 +17381,7 @@
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
@@ -17397,11 +17401,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J318" s="13" t="n"/>
-      <c r="K318" s="19" t="n"/>
+      <c r="J318" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K318" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17428,7 +17440,7 @@
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
@@ -17452,7 +17464,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -17469,7 +17481,7 @@
       </c>
       <c r="B320" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C320" s="18" t="inlineStr">
@@ -17479,7 +17491,7 @@
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
@@ -17503,7 +17515,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -17530,13 +17542,13 @@
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
       <c r="F321" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -17554,7 +17566,7 @@
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -17571,23 +17583,23 @@
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -17605,7 +17617,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17622,17 +17634,17 @@
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
@@ -17656,7 +17668,7 @@
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17673,23 +17685,23 @@
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17707,7 +17719,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17734,13 +17746,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -17758,7 +17770,7 @@
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17785,7 +17797,7 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17809,7 +17821,7 @@
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17836,13 +17848,13 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17860,7 +17872,7 @@
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17887,7 +17899,7 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
@@ -17911,7 +17923,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17938,14 +17950,10 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="E329" s="18" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+        </is>
+      </c>
+      <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -17966,7 +17974,7 @@
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17993,13 +18001,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -18017,7 +18025,7 @@
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -18044,7 +18052,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -18064,15 +18072,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J331" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J331" s="13" t="n"/>
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -18099,10 +18103,14 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
-        </is>
-      </c>
-      <c r="E332" s="18" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="E332" s="18" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F332" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -18123,7 +18131,7 @@
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -18150,7 +18158,7 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -18174,7 +18182,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18201,7 +18209,7 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
@@ -18216,12 +18224,20 @@
         </is>
       </c>
       <c r="H334" s="18" t="n"/>
-      <c r="I334" s="13" t="n"/>
-      <c r="J334" s="13" t="n"/>
+      <c r="I334" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J334" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18243,18 +18259,18 @@
       </c>
       <c r="C335" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -18272,7 +18288,7 @@
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18289,17 +18305,17 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
@@ -18323,7 +18339,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18340,23 +18356,23 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -18365,16 +18381,12 @@
         </is>
       </c>
       <c r="H337" s="18" t="n"/>
-      <c r="I337" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I337" s="13" t="n"/>
       <c r="J337" s="13" t="n"/>
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18391,23 +18403,23 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -18425,7 +18437,7 @@
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18447,12 +18459,12 @@
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -18476,7 +18488,7 @@
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18498,18 +18510,18 @@
       </c>
       <c r="C340" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18523,15 +18535,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J340" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J340" s="13" t="n"/>
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18553,12 +18561,12 @@
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
@@ -18578,15 +18586,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J341" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J341" s="13" t="n"/>
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18603,17 +18607,17 @@
       </c>
       <c r="B342" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C342" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -18633,15 +18637,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J342" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="J342" s="13" t="n"/>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18663,12 +18663,12 @@
       </c>
       <c r="C343" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18690,13 +18690,13 @@
       </c>
       <c r="J343" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18718,12 +18718,12 @@
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -18745,13 +18745,13 @@
       </c>
       <c r="J344" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18773,12 +18773,12 @@
       </c>
       <c r="C345" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다. </t>
+          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18800,13 +18800,13 @@
       </c>
       <c r="J345" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="C346" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18855,13 +18855,13 @@
       </c>
       <c r="J346" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18883,12 +18883,12 @@
       </c>
       <c r="C347" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
@@ -18908,11 +18908,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J347" s="13" t="n"/>
+      <c r="J347" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18934,12 +18938,12 @@
       </c>
       <c r="C348" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -18959,11 +18963,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="13" t="n"/>
+      <c r="J348" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18985,12 +18993,12 @@
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -19010,11 +19018,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="13" t="n"/>
+      <c r="J349" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -19041,7 +19053,7 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
@@ -19065,7 +19077,7 @@
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -19082,17 +19094,17 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -19116,7 +19128,7 @@
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -19133,24 +19145,20 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="E352" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+        </is>
+      </c>
+      <c r="E352" s="18" t="n"/>
       <c r="F352" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -19171,7 +19179,7 @@
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19193,12 +19201,12 @@
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
@@ -19222,7 +19230,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19239,17 +19247,17 @@
       </c>
       <c r="B354" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -19273,7 +19281,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19290,7 +19298,7 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
@@ -19300,13 +19308,17 @@
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
-        </is>
-      </c>
-      <c r="E355" s="18" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E355" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -19324,7 +19336,7 @@
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19341,7 +19353,7 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
@@ -19351,13 +19363,13 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19375,7 +19387,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19392,17 +19404,17 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
@@ -19426,7 +19438,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19443,17 +19455,17 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -19477,7 +19489,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19494,23 +19506,23 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
       <c r="F359" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -19525,14 +19537,10 @@
         </is>
       </c>
       <c r="J359" s="13" t="n"/>
-      <c r="K359" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19549,17 +19557,17 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
@@ -19583,7 +19591,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19610,13 +19618,13 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19634,7 +19642,7 @@
       <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19661,7 +19669,7 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
@@ -19682,10 +19690,14 @@
         </is>
       </c>
       <c r="J362" s="13" t="n"/>
-      <c r="K362" s="19" t="n"/>
+      <c r="K362" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19712,7 +19724,7 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
@@ -19736,7 +19748,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19763,7 +19775,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19787,7 +19799,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19814,7 +19826,7 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
@@ -19838,7 +19850,7 @@
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19865,7 +19877,7 @@
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -19889,7 +19901,7 @@
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19916,7 +19928,7 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
@@ -19940,7 +19952,7 @@
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19967,7 +19979,7 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -19991,7 +20003,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -20018,7 +20030,7 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
@@ -20042,7 +20054,7 @@
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -20064,12 +20076,12 @@
       </c>
       <c r="C370" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
@@ -20093,7 +20105,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -20115,18 +20127,18 @@
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -20144,7 +20156,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -20166,18 +20178,18 @@
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -20195,7 +20207,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -20217,18 +20229,18 @@
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -20246,7 +20258,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -20268,12 +20280,12 @@
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
@@ -20297,7 +20309,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -20319,18 +20331,18 @@
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -20348,7 +20360,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -20370,18 +20382,18 @@
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -20399,7 +20411,7 @@
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20421,18 +20433,18 @@
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -20450,7 +20462,7 @@
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20472,12 +20484,12 @@
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -20501,7 +20513,7 @@
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20523,18 +20535,18 @@
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
       <c r="F379" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -20552,7 +20564,7 @@
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20574,18 +20586,18 @@
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20603,7 +20615,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20620,23 +20632,23 @@
       </c>
       <c r="B381" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20654,7 +20666,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20666,7 +20678,7 @@
     <row r="382">
       <c r="A382" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B382" s="18" t="inlineStr">
@@ -20676,12 +20688,12 @@
       </c>
       <c r="C382" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>ADDS 도메인 컨트롤러가 네이티브 Azure의 ID 구독에 배포되었는지 확인합니다.</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20696,12 +20708,16 @@
         </is>
       </c>
       <c r="H382" s="18" t="n"/>
-      <c r="I382" s="13" t="n"/>
+      <c r="I382" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J382" s="13" t="n"/>
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20713,7 +20729,7 @@
     <row r="383">
       <c r="A383" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B383" s="18" t="inlineStr">
@@ -20723,18 +20739,18 @@
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>ADDS 사이트 및 서비스가 Azure 기반 리소스(Azure VMware Solution 포함)의 인증 요청을 Azure에 로컬로 유지하도록 구성되어 있는지 확인합니다.</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20743,12 +20759,16 @@
         </is>
       </c>
       <c r="H383" s="18" t="n"/>
-      <c r="I383" s="13" t="n"/>
+      <c r="I383" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J383" s="13" t="n"/>
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20760,22 +20780,22 @@
     <row r="384">
       <c r="A384" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>vCenter가 ADDS에 연결되어 있는지 확인하여 '명명된 사용자 계정'을 기반으로 인증을 사용하도록 설정합니다.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20790,12 +20810,16 @@
         </is>
       </c>
       <c r="H384" s="18" t="n"/>
-      <c r="I384" s="13" t="n"/>
+      <c r="I384" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J384" s="13" t="n"/>
       <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20822,13 +20846,13 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>vCenter에서 ADDS로의 연결이 보안 프로토콜(LDAPS)을 사용하고 있는지 확인합니다.</t>
+          <t>ADDS 도메인 컨트롤러가 네이티브 Azure의 ID 구독에 배포되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
       <c r="F385" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -20842,7 +20866,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20869,7 +20893,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(Break-glass).</t>
+          <t>ADDS 사이트 및 서비스가 Azure 기반 리소스(Azure VMware Solution 포함)의 인증 요청을 Azure에 로컬로 유지하도록 구성되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20889,7 +20913,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20916,7 +20940,7 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>NSX-Manager가 외부 ID 제공자(LDAPS)와 통합되었는지 확인합니다.</t>
+          <t>vCenter가 ADDS에 연결되어 있는지 확인하여 '명명된 사용자 계정'을 기반으로 인증을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
@@ -20936,7 +20960,7 @@
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20963,7 +20987,7 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere에서 사용하기 위해 RBAC 모델이 생성되었습니까?</t>
+          <t>vCenter에서 ADDS로의 연결이 보안 프로토콜(LDAPS)을 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20983,7 +21007,7 @@
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -21010,7 +21034,7 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>RBAC 권한은 특정 사용자가 아닌 ADDS 그룹에 부여해야 합니다</t>
+          <t>vCenter IdP의 CloudAdmin 계정은 긴급 계정으로만 사용됩니다(Break-glass).</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
@@ -21030,7 +21054,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -21057,7 +21081,7 @@
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Azure의 Azure VMware Solution 리소스에 대한 RBAC 권한은 제한된 소유자 집합으로만 '잠김'됩니다</t>
+          <t>NSX-Manager가 외부 ID 제공자(LDAPS)와 통합되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -21077,7 +21101,7 @@
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -21104,13 +21128,13 @@
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>모든 사용자 지정 역할의 범위가 CloudAdmin 허용 권한 부여로 지정되었는지 확인합니다.</t>
+          <t>VMware vSphere에서 사용하기 위해 RBAC 모델이 생성되었습니까?</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -21124,7 +21148,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -21141,7 +21165,7 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
@@ -21151,13 +21175,13 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>현재 고객 사용 사례에 대해 올바른 Azure VMware Solution 연결 모델을 선택했습니까?</t>
+          <t>RBAC 권한은 특정 사용자가 아닌 ADDS 그룹에 부여해야 합니다</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -21166,16 +21190,12 @@
         </is>
       </c>
       <c r="H392" s="18" t="n"/>
-      <c r="I392" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I392" s="13" t="n"/>
       <c r="J392" s="13" t="n"/>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -21192,7 +21212,7 @@
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
@@ -21202,7 +21222,7 @@
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>'연결 모니터'를 사용하여 온-프레미스에서 Azure로의 ExpressRoute 또는 VPN 연결이 모니터링되는지 확인합니다.</t>
+          <t>Azure의 Azure VMware Solution 리소스에 대한 RBAC 권한은 제한된 소유자 집합으로만 '잠김'됩니다</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
@@ -21222,7 +21242,7 @@
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -21239,7 +21259,7 @@
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
@@ -21249,13 +21269,13 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링하기 위해 Azure 네이티브 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
+          <t>모든 사용자 지정 역할의 범위가 CloudAdmin 허용 권한 부여로 지정되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -21269,7 +21289,7 @@
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -21286,7 +21306,7 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
@@ -21296,13 +21316,13 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>엔드-2-엔드 연결을 모니터링하기 위해 온-프레미스 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
+          <t>현재 고객 사용 사례에 대해 올바른 Azure VMware Solution 연결 모델을 선택했습니까?</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -21311,12 +21331,16 @@
         </is>
       </c>
       <c r="H395" s="18" t="n"/>
-      <c r="I395" s="13" t="n"/>
+      <c r="I395" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J395" s="13" t="n"/>
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -21343,7 +21367,7 @@
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이로, 온-프레미스로 1,000개 이상의 경로가 전파되지 않도록 합니다(ARS 제한).</t>
+          <t>'연결 모니터'를 사용하여 온-프레미스에서 Azure로의 ExpressRoute 또는 VPN 연결이 모니터링되는지 확인합니다.</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -21363,7 +21387,7 @@
       <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21380,7 +21404,7 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
@@ -21390,13 +21414,13 @@
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할에 대해 Privileged Identity Management가 구현되어 있나요(고정 권한이 허용되지 않음).</t>
+          <t>Azure VMware Solution 백 엔드 ExpressRoute 연결을 모니터링하기 위해 Azure 네이티브 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -21410,7 +21434,7 @@
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21427,7 +21451,7 @@
       </c>
       <c r="B398" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C398" s="18" t="inlineStr">
@@ -21437,13 +21461,13 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution PIM 역할에 대해 Privileged Identity Management 감사 보고를 구현해야 합니다.</t>
+          <t>엔드-2-엔드 연결을 모니터링하기 위해 온-프레미스 리소스에서 Azure VMware Solution 가상 머신으로 연결 모니터가 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21457,7 +21481,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21474,7 +21498,7 @@
       </c>
       <c r="B399" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C399" s="18" t="inlineStr">
@@ -21484,13 +21508,13 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management를 사용하는 경우 Azure VMware Solution 자동 호스트 교체 알림에 대한 유효한 SMTP 레코드를 사용하여 유효한 Entra ID 사용 계정을 만들었는지 확인합니다. (상시 권한 필요)</t>
+          <t>경로 서버를 사용하는 경우 경로 서버에서 ExR 게이트웨이로, 온-프레미스로 1,000개 이상의 경로가 전파되지 않도록 합니다(ARS 제한).</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21504,7 +21528,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21531,7 +21555,7 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>CloudAdmin 계정 사용을 긴급 액세스로만 제한</t>
+          <t>Azure Portal에서 Azure VMware Solution 리소스를 관리하는 역할에 대해 Privileged Identity Management가 구현되어 있나요(고정 권한이 허용되지 않음).</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
@@ -21551,7 +21575,7 @@
       <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21578,13 +21602,13 @@
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>vCenter에서 사용자 지정 RBAC 역할을 만들어 vCenter 내에서 최소 권한 모델 구현</t>
+          <t>Azure VMware Solution PIM 역할에 대해 Privileged Identity Management 감사 보고를 구현해야 합니다.</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21598,7 +21622,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21625,7 +21649,7 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 순환하도록 정의된 프로세스입니다.</t>
+          <t>Privileged Identity Management를 사용하는 경우 Azure VMware Solution 자동 호스트 교체 알림에 대한 유효한 SMTP 레코드를 사용하여 유효한 Entra ID 사용 계정을 만들었는지 확인합니다. (상시 권한 필요)</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21645,7 +21669,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21672,7 +21696,7 @@
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드(VM)에 사용할 중앙 집중식 ID 공급자 사용</t>
+          <t>CloudAdmin 계정 사용을 긴급 액세스로만 제한</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21692,7 +21716,7 @@
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21719,7 +21743,7 @@
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>NSX-T 내에서 East-West 트래픽 필터링이 구현되었는지 여부</t>
+          <t>vCenter에서 사용자 지정 RBAC 역할을 만들어 vCenter 내에서 최소 권한 모델 구현</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21739,7 +21763,7 @@
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21766,13 +21790,13 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution의 워크로드는 인터넷에 직접 노출되지 않습니다. 트래픽은 Azure Application Gateway, Azure Firewall 또는 제3자 솔루션에 의해 필터링되고 검사됩니다</t>
+          <t>cloudadmin(vCenter) 및 admin(NSX) 자격 증명을 정기적으로 순환하도록 정의된 프로세스입니다.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21786,7 +21810,7 @@
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21813,7 +21837,7 @@
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>감사 및 로깅은 Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 인바운드 인터넷 요청에 대해 구현됩니다</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드(VM)에 사용할 중앙 집중식 ID 공급자 사용</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21833,7 +21857,7 @@
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21860,7 +21884,7 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>세션 모니터링은 의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결에 대해 구현됩니다</t>
+          <t>NSX-T 내에서 East-West 트래픽 필터링이 구현되었는지 여부</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21880,7 +21904,7 @@
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21907,13 +21931,13 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Azure의 ExR/VPN Gateway 서브넷에서 DDoS 표준 보호를 사용할 수 있나요?</t>
+          <t>Azure VMware Solution의 워크로드는 인터넷에 직접 노출되지 않습니다. 트래픽은 Azure Application Gateway, Azure Firewall 또는 제3자 솔루션에 의해 필터링되고 검사됩니다</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
       <c r="F408" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -21927,7 +21951,7 @@
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21954,13 +21978,13 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>전용 PAW(Privileged Access Workstation)를 사용하여 Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager 관리</t>
+          <t>감사 및 로깅은 Azure VMware Solution 및 Azure VMware Solution 기반 워크로드에 대한 인바운드 인터넷 요청에 대해 구현됩니다</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
       <c r="F409" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -21974,7 +21998,7 @@
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -22001,7 +22025,7 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 Advanced Threat Detection(클라우드용 Microsoft Defender 또는 ASC) 사용</t>
+          <t>세션 모니터링은 의심스러운/악의적인 활동을 식별하기 위해 Azure VMware Solution 또는 Azure VMware Solution 기반 워크로드의 아웃바운드 인터넷 연결에 대해 구현됩니다</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
@@ -22021,7 +22045,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -22048,7 +22072,7 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution에서 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
+          <t>Azure의 ExR/VPN Gateway 서브넷에서 DDoS 표준 보호를 사용할 수 있나요?</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -22068,7 +22092,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -22095,13 +22119,13 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution의 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (vSAN 미사용 암호화가 기본값임)</t>
+          <t>전용 PAW(Privileged Access Workstation)를 사용하여 Azure VMware Solution, vCenter, NSX Manager 및 HCX Manager 관리</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
       <c r="F412" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -22115,7 +22139,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -22142,13 +22166,13 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>게스트 내 암호화를 사용하는 경우 가능한 경우 Azure Key Vault에 암호화 키를 저장합니다</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 Advanced Threat Detection(클라우드용 Microsoft Defender 또는 ASC) 사용</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -22162,7 +22186,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -22189,7 +22213,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 확장된 보안 업데이트 지원을 사용하는 것이 좋습니다(Azure VMware Solution은 ESU에 적합함).</t>
+          <t>서버용 Azure ARC를 사용하여 Azure 네이티브 기술을 사용하여 Azure VMware Solution에서 실행되는 워크로드를 적절하게 제어합니다(Azure VMware Solution용 Azure ARC는 아직 사용할 수 없음).</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -22209,7 +22233,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -22226,7 +22250,7 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
@@ -22236,13 +22260,13 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>적절한 vSAN 데이터 이중화 방법이 사용되는지 확인합니다(RAID 규격).</t>
+          <t>Azure VMware Solution의 워크로드가 런타임 중에 충분한 데이터 암호화(예: 게스트 내 디스크 암호화 및 SQL TDE)를 사용하는지 확인합니다. (vSAN 미사용 암호화가 기본값임)</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -22256,7 +22280,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22273,7 +22297,7 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
@@ -22283,13 +22307,13 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>vSAN 스토리지 요구 사항을 충족하기 위해 장애 허용 정책이 적용되어 있는지 확인합니다</t>
+          <t>게스트 내 암호화를 사용하는 경우 가능한 경우 Azure Key Vault에 암호화 키를 저장합니다</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -22303,7 +22327,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22320,7 +22344,7 @@
       </c>
       <c r="B417" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C417" s="18" t="inlineStr">
@@ -22330,13 +22354,13 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드에 대해 확장된 보안 업데이트 지원을 사용하는 것이 좋습니다(Azure VMware Solution은 ESU에 적합함).</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -22350,7 +22374,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22367,7 +22391,7 @@
       </c>
       <c r="B418" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C418" s="18" t="inlineStr">
@@ -22377,13 +22401,13 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
+          <t>적절한 vSAN 데이터 이중화 방법이 사용되는지 확인합니다(RAID 규격).</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22397,7 +22421,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22414,7 +22438,7 @@
       </c>
       <c r="B419" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C419" s="18" t="inlineStr">
@@ -22424,13 +22448,13 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>새 노드 요청에 대한 리드 타임을 염두에 두고 ESXi 호스트 밀도 및 효율성에 대한 정책이 있는지 확인합니다</t>
+          <t>vSAN 스토리지 요구 사항을 충족하기 위해 장애 허용 정책이 적용되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
       <c r="F419" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -22444,7 +22468,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22461,7 +22485,7 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
@@ -22471,13 +22495,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 있는지 확인 - Azure Cost Management를 사용할 수 있습니다.</t>
+          <t>충분한 할당량을 요청했는지 확인하고 성장 및 재해 복구 요구 사항을 고려했는지 확인합니다</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22491,7 +22515,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22508,7 +22532,7 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
@@ -22518,13 +22542,13 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 사용 비용을 최적화하는 데 사용되는 Azure 예약 인스턴스입니까?</t>
+          <t>ESXi에 대한 액세스 제약 조건을 이해하고 타사 솔루션에 영향을 줄 수 있는 액세스 제한이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22538,7 +22562,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22555,7 +22579,7 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
@@ -22565,7 +22589,7 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link 사용 고려</t>
+          <t>새 노드 요청에 대한 리드 타임을 염두에 두고 ESXi 호스트 밀도 및 효율성에 대한 정책이 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
@@ -22585,7 +22609,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22602,7 +22626,7 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
@@ -22612,13 +22636,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>필요한 모든 리소스가 동일한 Azure 가용성 영역 내에 있는지 확인합니다.</t>
+          <t>Azure VMware Solution에 대한 적절한 비용 관리 프로세스가 있는지 확인 - Azure Cost Management를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22632,7 +22656,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22649,7 +22673,7 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
@@ -22659,13 +22683,13 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 게스트 VM 워크로드에 대해 클라우드용 Microsoft Defender 사용</t>
+          <t>Azure VMware Solution 사용 비용을 최적화하는 데 사용되는 Azure 예약 인스턴스입니까?</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22679,7 +22703,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22706,7 +22730,7 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버를 사용하여 Azure VMware Solution 게스트 VM 워크로드 관리</t>
+          <t>다른 Azure 네이티브 서비스를 사용할 때 Azure Private-Link 사용 고려</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22726,7 +22750,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22743,7 +22767,7 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
@@ -22753,7 +22777,7 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>필요한 모든 리소스가 동일한 Azure 가용성 영역 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22773,7 +22797,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22790,7 +22814,7 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
@@ -22800,7 +22824,7 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 게스트 VM 워크로드에 Log Analytics 에이전트 배포</t>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 대해 클라우드용 Microsoft Defender 사용</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
@@ -22820,7 +22844,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22837,7 +22861,7 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
@@ -22847,7 +22871,7 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution VM 워크로드에 대한 백업 정책 및 솔루션을 문서화하고 구현했는지 확인합니다.</t>
+          <t>Azure Arc 지원 서버를 사용하여 Azure VMware Solution 게스트 VM 워크로드 관리</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -22867,7 +22891,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22884,7 +22908,7 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
@@ -22894,13 +22918,13 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender를 사용하여 Azure VMware Solution에서 실행되는 워크로드의 규정 준수 모니터링</t>
+          <t>Azure VMware Solution에서 진단 및 메트릭 로깅 사용Enable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22914,7 +22938,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22931,7 +22955,7 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
@@ -22941,7 +22965,7 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>적용 가능한 규정 준수 기준이 클라우드용 Microsoft Defender에 추가되었나요?</t>
+          <t>Azure VMware Solution 게스트 VM 워크로드에 Log Analytics 에이전트 배포</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -22961,7 +22985,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22978,7 +23002,7 @@
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
@@ -22988,13 +23012,13 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 배포에 사용할 Azure 지역을 선택할 때 데이터 보존이 평가되었나요?</t>
+          <t>Azure VMware Solution VM 워크로드에 대한 백업 정책 및 솔루션을 문서화하고 구현했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -23008,7 +23032,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23035,13 +23059,13 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>데이터 처리의 영향(서비스 제공자/서비스 소비자 모델)이 명확하고 문서화되어 있습니까?</t>
+          <t>클라우드용 Microsoft Defender를 사용하여 Azure VMware Solution에서 실행되는 워크로드의 규정 준수 모니터링</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -23055,7 +23079,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23082,7 +23106,7 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>규정 준수를 위해 필요한 경우에만 vSAN에 CMK(고객 관리 키)를 사용하는 것이 좋습니다.</t>
+          <t>적용 가능한 규정 준수 기준이 클라우드용 Microsoft Defender에 추가되었나요?</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
@@ -23102,7 +23126,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23119,7 +23143,7 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
@@ -23129,7 +23153,7 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 설정하는 대시보드 만들기</t>
+          <t>Azure VMware Solution 배포에 사용할 Azure 지역을 선택할 때 데이터 보존이 평가되었나요?</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -23149,7 +23173,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23166,7 +23190,7 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
@@ -23176,7 +23200,7 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 성능에 대한 자동 경고에 대한 중요 임계값에 대한 경고 만들기(CPU &gt;80%, 평균 메모리&gt;80%, vSAN&gt;70%)</t>
+          <t>데이터 처리의 영향(서비스 제공자/서비스 소비자 모델)이 명확하고 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -23196,7 +23220,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23213,7 +23237,7 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
@@ -23223,13 +23247,13 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>VMware의 지원 임계값이므로 vSAN 사용량이 75% 미만인지 모니터링하기 위해 중요한 경고가 생성되었는지 확인합니다.</t>
+          <t>규정 준수를 위해 필요한 경우에만 vSAN에 CMK(고객 관리 키)를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
       <c r="F436" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -23243,7 +23267,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23270,7 +23294,7 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Azure Service Health 경고 및 알림에 대해 경고가 구성되었는지 확인</t>
+          <t>핵심 Azure VMware Solution 모니터링 인사이트를 사용하도록 설정하는 대시보드 만들기</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23290,7 +23314,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23317,13 +23341,13 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내도록 Azure VMware Solution 로깅 구성</t>
+          <t>Azure VMware Solution 성능에 대한 자동 경고에 대한 중요 임계값에 대한 경고 만들기(CPU &gt;80%, 평균 메모리&gt;80%, vSAN&gt;70%)</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23337,7 +23361,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23364,13 +23388,13 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>VMware vSphere에 대한 심층적인 통찰력이 필요한 경우: 솔루션에서 vRealize Operations 및/또는 vRealize Network Insights가 사용됩니까?</t>
+          <t>VMware의 지원 임계값이므로 vSAN 사용량이 75% 미만인지 모니터링하기 위해 중요한 경고가 생성되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23384,7 +23408,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23411,7 +23435,7 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>VM에 대한 vSAN 스토리지 정책은 씩 프로비저닝을 적용하므로 기본 스토리지 정책이 아닌지 확인합니다.</t>
+          <t>Azure Service Health 경고 및 알림에 대해 경고가 구성되었는지 확인</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23431,7 +23455,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23458,7 +23482,7 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>vSAN은 유한한 리소스이므로 vSphere 컨텐츠 라이브러리가 vSAN에 배치되지 않도록 합니다.</t>
+          <t>처리를 위해 Azure Storage 계정 또는 Azure EventHub로 보내도록 Azure VMware Solution 로깅 구성</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -23478,7 +23502,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23505,13 +23529,13 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서</t>
+          <t>VMware vSphere에 대한 심층적인 통찰력이 필요한 경우: 솔루션에서 vRealize Operations 및/또는 vRealize Network Insights가 사용됩니까?</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23525,7 +23549,7 @@
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23552,13 +23576,13 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드가 서버용 Azure Arc를 사용하여 하이브리드 관리되는지 확인합니다(Arc for Azure VMware Solution은 미리 보기 상태임).</t>
+          <t>VM에 대한 vSAN 스토리지 정책은 씩 프로비저닝을 적용하므로 기본 스토리지 정책이 아닌지 확인합니다.</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23572,7 +23596,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23599,7 +23623,7 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인합니다.</t>
+          <t>vSAN은 유한한 리소스이므로 vSphere 컨텐츠 라이브러리가 vSAN에 배치되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23619,7 +23643,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23646,7 +23670,7 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>기존 업데이트 관리 도구 또는 Azure 업데이트 관리에 Azure VMware Solution에서 실행되는 워크로드 포함</t>
+          <t>백업 솔루션에 대한 데이터 저장소가 vSAN 스토리지 외부에 저장되어 있는지 확인합니다. Azure 네이티브 또는 디스크 풀 지원 데이터 저장소에서</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23666,7 +23690,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23693,7 +23717,7 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드가 서버용 Azure Arc를 사용하여 하이브리드 관리되는지 확인합니다(Arc for Azure VMware Solution은 미리 보기 상태임).</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -23713,7 +23737,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23730,7 +23754,7 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
@@ -23740,7 +23764,7 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution에서 실행되는 워크로드가 클라우드용 Microsoft Defender에 온보딩되었는지 확인</t>
+          <t>Azure Log Analytics 및 Azure Monitor를 사용하여 Azure VMware Solution에서 실행되는 워크로드를 모니터링하는지 확인합니다.</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
@@ -23760,7 +23784,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23777,7 +23801,7 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
@@ -23787,7 +23811,7 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>vSAN은 유한한 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
+          <t>기존 업데이트 관리 도구 또는 Azure 업데이트 관리에 Azure VMware Solution에서 실행되는 워크로드 포함</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23807,7 +23831,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23824,7 +23848,7 @@
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
@@ -23834,7 +23858,7 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>모든 DR 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [SRM/제트스트림/제르토/빔/...]</t>
+          <t>Azure Policy를 사용하여 Azure 관리, 모니터링 및 보안 솔루션에서 Azure VMware Solution 워크로드 온보딩</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
@@ -23854,7 +23878,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23871,7 +23895,7 @@
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
@@ -23881,7 +23905,7 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+          <t>Azure VMware Solution에서 실행되는 워크로드가 클라우드용 Microsoft Defender에 온보딩되었는지 확인</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23901,7 +23925,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23928,13 +23952,13 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용하고 가능한 한 수동 작업을 피하십시오.</t>
+          <t>vSAN은 유한한 리소스이므로 백업이 vSAN에 저장되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23948,7 +23972,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23975,7 +23999,7 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>지정학적 지역 쌍을 보조 재해 복구 환경으로 사용Use the geopolitical region pair as the secondary disaster recovery environment</t>
+          <t>모든 DR 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [SRM/제트스트림/제르토/빔/...]</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23995,7 +24019,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -24022,13 +24046,13 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 서로 다른 지역에 대해 10.0.0.0/16 및 192.168.0.0/16).</t>
+          <t>재해 복구 기술이 네이티브 Azure IaaS인 경우 Azure Site Recovery 사용Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
       <c r="F453" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -24042,7 +24066,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -24069,13 +24093,13 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용되나요, 아니면 네트워크 가상 어플라이언스를 통해 라우팅이 수행되나요?</t>
+          <t>재해 솔루션 중 하나와 함께 자동화된 복구 계획을 사용하고 가능한 한 수동 작업을 피하십시오.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -24089,7 +24113,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24116,7 +24140,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>모든 백업 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [ MABS/CommVault/Metallic.io/Veeam/입니다. ]</t>
+          <t>지정학적 지역 쌍을 보조 재해 복구 환경으로 사용Use the geopolitical region pair as the secondary disaster recovery environment</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -24136,7 +24160,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24163,13 +24187,13 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+          <t>지역 간에 2개의 서로 다른 주소 공간을 사용합니다(예: 서로 다른 지역에 대해 10.0.0.0/16 및 192.168.0.0/16).</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24183,7 +24207,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24210,7 +24234,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>vSan의 외부, Azure 네이티브 구성 요소에 백업 솔루션 배포</t>
+          <t>ExpressRoute Global Reach는 기본 및 보조 Azure VMware Solution 프라이빗 클라우드 간의 연결에 사용되나요, 아니면 네트워크 가상 어플라이언스를 통해 라우팅이 수행되나요?</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24230,7 +24254,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24257,13 +24281,13 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 마련되어 있나요?</t>
+          <t>모든 백업 솔루션을 고려하고 비즈니스에 가장 적합한 솔루션을 결정했습니까? [ MABS/CommVault/Metallic.io/Veeam/입니다. ]</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24277,7 +24301,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24294,7 +24318,7 @@
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
@@ -24304,13 +24328,13 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
+          <t>Azure VMware Solution 프라이빗 클라우드와 동일한 지역에 백업 솔루션 배포Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24324,7 +24348,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24341,7 +24365,7 @@
       </c>
       <c r="B460" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C460" s="18" t="inlineStr">
@@ -24351,13 +24375,13 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 실수로 인한 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
+          <t>vSan의 외부, Azure 네이티브 구성 요소에 백업 솔루션 배포</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24371,7 +24395,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24388,7 +24412,7 @@
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
@@ -24398,7 +24422,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 최소한의 프라이빗 클라우드를 배포하고 필요에 따라 확장합니다</t>
+          <t>Azure 플랫폼에서 관리하는 VMware 구성 요소의 복원을 요청하는 프로세스가 마련되어 있나요?</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24418,7 +24442,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24445,7 +24469,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 배포를 시작하기 전에 할당량을 요청하거나 예약합니다</t>
+          <t>수동 배포의 경우 모든 구성 및 배포를 문서화해야 합니다</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24465,7 +24489,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24492,7 +24516,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>자동화된 배포의 경우 적절한 거버넌스를 위해 자동화 또는 Azure Policy를 통해 관련 리소스 잠금을 만들어야 합니다</t>
+          <t>수동 배포의 경우 Azure VMware Solution 프라이빗 클라우드에서 실수로 인한 작업을 방지하기 위해 리소스 잠금을 구현하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24512,7 +24536,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24539,7 +24563,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>ExR 인증 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키의 목적/용도를 쉽게 식별할 수 있습니다.</t>
+          <t>자동화된 배포의 경우 최소한의 프라이빗 클라우드를 배포하고 필요에 따라 확장합니다</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24559,7 +24583,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24586,7 +24610,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
+          <t>자동화된 배포의 경우 배포를 시작하기 전에 할당량을 요청하거나 예약합니다</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24606,7 +24630,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24633,7 +24657,7 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution은 제한된 수의 병렬 작업만 지원하므로 많은 리소스를 Azure VMware Solution 배포해야 하는 경우 IaC에서 작업을 직렬화하기 위한 리소스 종속성을 정의합니다.</t>
+          <t>자동화된 배포의 경우 적절한 거버넌스를 위해 자동화 또는 Azure Policy를 통해 관련 리소스 잠금을 만들어야 합니다</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24653,7 +24677,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24680,7 +24704,7 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
+          <t>ExR 인증 키에 대해 사람이 이해할 수 있는 이름을 구현하여 키의 목적/용도를 쉽게 식별할 수 있습니다.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24700,7 +24724,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24717,7 +24741,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -24727,13 +24751,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 적용해야 합니다</t>
+          <t>Azure VMware Solution 및 ExpressRoute를 배포하는 데 별도의 서비스 원칙을 사용하는 경우 Key Vault를 사용하여 비밀 및 권한 부여 키를 저장합니다</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24747,7 +24771,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24764,7 +24788,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -24774,13 +24798,13 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>자동 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
+          <t>Azure VMware Solution은 제한된 수의 병렬 작업만 지원하므로 많은 리소스를 Azure VMware Solution 배포해야 하는 경우 IaC에서 작업을 직렬화하기 위한 리소스 종속성을 정의합니다.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24794,7 +24818,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24811,7 +24835,7 @@
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
@@ -24821,13 +24845,13 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>한 번에 하나의 크기 조정 작업만 수행할 수 있으므로 크기 조정 작업은 항상 단일 SDDC 내에서 직렬화되어야 합니다(여러 클러스터를 사용하는 경우에도)</t>
+          <t>단일 Tier-1 게이트웨이를 사용하여 NSX-T 세그먼트의 자동화된 구성을 수행하는 경우 NSX-Manager API 대신 Azure Portal API를 사용합니다</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24841,7 +24865,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24868,7 +24892,7 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>아키텍처에 사용되는 제3자 솔루션에 대한 확장 작업을 고려하고 검증합니다(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+          <t>자동화된 스케일 아웃을 사용하려는 경우 Azure VMware Solution을 실행하는 구독에 대해 충분한 Azure VMware Solution 할당량을 적용해야 합니다</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24888,7 +24912,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24915,7 +24939,7 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>자동화에서 환경에 대한 규모 확장/축소 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
+          <t>자동 축소를 사용하려는 경우 이러한 작업을 수행하기 전에 스토리지 정책 요구 사항을 고려해야 합니다</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
@@ -24935,7 +24959,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24952,7 +24976,7 @@
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
@@ -24962,7 +24986,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>모니터링 규칙을 구현하여 자동화된 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동) 응답을 사용하도록 설정합니다.</t>
+          <t>한 번에 하나의 크기 조정 작업만 수행할 수 있으므로 크기 조정 작업은 항상 단일 SDDC 내에서 직렬화되어야 합니다(여러 클러스터를 사용하는 경우에도)</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -24982,7 +25006,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24999,7 +25023,7 @@
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
@@ -25009,13 +25033,13 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>MON을 사용하는 경우 동시에 구성된 VM의 제한(HCX에 대한 MON 제한[400 - 표준, 1000 - 대형 어플라이언스])을 알고 있어야 합니다.</t>
+          <t>아키텍처에 사용되는 제3자 솔루션에 대한 확장 작업을 고려하고 검증합니다(지원 여부)Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -25024,20 +25048,12 @@
         </is>
       </c>
       <c r="H474" s="18" t="n"/>
-      <c r="I474" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J474" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I474" s="13" t="n"/>
+      <c r="J474" s="13" t="n"/>
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25054,7 +25070,7 @@
       </c>
       <c r="B475" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C475" s="18" t="inlineStr">
@@ -25064,13 +25080,13 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>MON을 사용하는 경우 100개 이상의 네트워크 확장에서 MON을 사용하도록 설정할 수 없습니다</t>
+          <t>자동화에서 환경에 대한 규모 확장/축소 최대 한도 정의 및 적용Define and enforce scale in/out maximum limits for your environment in the automations</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -25079,20 +25095,12 @@
         </is>
       </c>
       <c r="H475" s="18" t="n"/>
-      <c r="I475" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J475" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I475" s="13" t="n"/>
+      <c r="J475" s="13" t="n"/>
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25109,7 +25117,7 @@
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
@@ -25119,7 +25127,7 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>마이그레이션에 VPN 연결을 사용하는 경우 그에 따라 MTU 크기를 조정합니다.</t>
+          <t>모니터링 규칙을 구현하여 자동화된 조정 작업을 모니터링하고 성공 및 실패를 모니터링하여 적절한(자동) 응답을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
@@ -25139,7 +25147,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25156,7 +25164,7 @@
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
@@ -25166,13 +25174,13 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Azure(500Mbps 이하)에 연결하는 낮은 연결 지역의 경우 HCX WAN 최적화 어플라이언스 배포를 고려합니다.</t>
+          <t>MON을 사용하는 경우 동시에 구성된 VM의 제한(HCX에 대한 MON 제한[400 - 표준, 1000 - 대형 어플라이언스])을 알고 있어야 합니다.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25181,12 +25189,20 @@
         </is>
       </c>
       <c r="H477" s="18" t="n"/>
-      <c r="I477" s="13" t="n"/>
-      <c r="J477" s="13" t="n"/>
+      <c r="I477" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J477" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25213,13 +25229,13 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>마이그레이션이 클라우드 어플라이언스가 아닌 온-프레미스 어플라이언스에서 시작되는지 확인합니다(역방향 마이그레이션을 수행하지 않음).</t>
+          <t>MON을 사용하는 경우 100개 이상의 네트워크 확장에서 MON을 사용하도록 설정할 수 없습니다</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25228,12 +25244,20 @@
         </is>
       </c>
       <c r="H478" s="18" t="n"/>
-      <c r="I478" s="13" t="n"/>
-      <c r="J478" s="13" t="n"/>
+      <c r="I478" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J478" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25250,7 +25274,7 @@
       </c>
       <c r="B479" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C479" s="18" t="inlineStr">
@@ -25260,7 +25284,7 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>Azure NetApp Files를 사용하여 Azure VMware Solution용 스토리지를 확장하는 경우 VM에 직접 연결하는 대신 VMware 데이터 저장소로 사용하는 것이 좋습니다.</t>
+          <t>마이그레이션에 VPN 연결을 사용하는 경우 그에 따라 MTU 크기를 조정합니다.</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25275,16 +25299,12 @@
         </is>
       </c>
       <c r="H479" s="18" t="n"/>
-      <c r="I479" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I479" s="13" t="n"/>
       <c r="J479" s="13" t="n"/>
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25301,7 +25321,7 @@
       </c>
       <c r="B480" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C480" s="18" t="inlineStr">
@@ -25311,7 +25331,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>전용 ExpressRoute 게이트웨이가 외부 데이터 스토리지 솔루션에 사용되고 있는지 확인합니다.</t>
+          <t>Azure(500Mbps 이하)에 연결하는 낮은 연결 지역의 경우 HCX WAN 최적화 어플라이언스 배포를 고려합니다.</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25326,16 +25346,12 @@
         </is>
       </c>
       <c r="H480" s="18" t="n"/>
-      <c r="I480" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I480" s="13" t="n"/>
       <c r="J480" s="13" t="n"/>
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25362,7 +25378,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>외부 데이터 스토리지 솔루션에 사용되는 ExpressRoute 게이트웨이에서 FastPath를 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>마이그레이션이 클라우드 어플라이언스가 아닌 온-프레미스 어플라이언스에서 시작되는지 확인합니다(역방향 마이그레이션을 수행하지 않음).</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25377,16 +25393,12 @@
         </is>
       </c>
       <c r="H481" s="18" t="n"/>
-      <c r="I481" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I481" s="13" t="n"/>
       <c r="J481" s="13" t="n"/>
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25413,13 +25425,13 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>확장된 클러스터를 사용하는 경우 선택한 재해 복구 솔루션이 공급업체에서 지원되는지 확인합니다</t>
+          <t>Azure NetApp Files를 사용하여 Azure VMware Solution용 스토리지를 확장하는 경우 VM에 직접 연결하는 대신 VMware 데이터 저장소로 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25437,7 +25449,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25464,13 +25476,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>확장된 클러스터를 사용하는 경우 제공된 SLA가 요구 사항을 충족하는지 확인합니다</t>
+          <t>전용 ExpressRoute 게이트웨이가 외부 데이터 스토리지 솔루션에 사용되고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25488,7 +25500,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25515,13 +25527,13 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로가 모두 연결 허브에 연결되어 있는지 확인합니다.</t>
+          <t>외부 데이터 스토리지 솔루션에 사용되는 ExpressRoute 게이트웨이에서 FastPath를 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
       <c r="F484" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -25539,7 +25551,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25566,7 +25578,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로 모두에서 GlobalReach를 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>확장된 클러스터를 사용하는 경우 선택한 재해 복구 솔루션이 공급업체에서 지원되는지 확인합니다</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25590,7 +25602,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25617,7 +25629,7 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>사이트 재해 허용 범위 설정을 적절하게 고려하고 필요한 경우 비즈니스에 맞게 변경하십시오.</t>
+          <t>확장된 클러스터를 사용하는 경우 제공된 SLA가 요구 사항을 충족하는지 확인합니다</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
@@ -25641,7 +25653,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25653,7 +25665,7 @@
     <row r="487">
       <c r="A487" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B487" s="18" t="inlineStr">
@@ -25663,16 +25675,20 @@
       </c>
       <c r="C487" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
+          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로가 모두 연결 허브에 연결되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
-      <c r="F487" s="18" t="n"/>
+      <c r="F487" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G487" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -25688,7 +25704,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25700,7 +25716,7 @@
     <row r="488">
       <c r="A488" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B488" s="18" t="inlineStr">
@@ -25710,16 +25726,20 @@
       </c>
       <c r="C488" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>확장된 클러스터를 사용하는 경우 두 ExpressRoute 회로 모두에서 GlobalReach를 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
-      <c r="F488" s="18" t="n"/>
+      <c r="F488" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G488" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -25735,7 +25755,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25747,7 +25767,7 @@
     <row r="489">
       <c r="A489" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B489" s="18" t="inlineStr">
@@ -25757,16 +25777,20 @@
       </c>
       <c r="C489" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
+          <t>사이트 재해 허용 범위 설정을 적절하게 고려하고 필요한 경우 비즈니스에 맞게 변경하십시오.</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
-      <c r="F489" s="18" t="n"/>
+      <c r="F489" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G489" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -25782,7 +25806,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25809,7 +25833,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -25829,7 +25853,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25839,17 +25863,46 @@
       <c r="Q490" s="20" t="n"/>
     </row>
     <row r="491">
-      <c r="A491" s="18" t="n"/>
-      <c r="B491" s="18" t="n"/>
-      <c r="C491" s="18" t="n"/>
-      <c r="D491" s="18" t="n"/>
+      <c r="A491" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B491" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C491" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D491" s="18" t="inlineStr">
+        <is>
+          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="n"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H491" s="18" t="n"/>
-      <c r="I491" s="13" t="n"/>
+      <c r="I491" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J491" s="13" t="n"/>
       <c r="K491" s="19" t="n"/>
-      <c r="L491" s="19" t="n"/>
+      <c r="L491" s="19" t="inlineStr">
+        <is>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+        </is>
+      </c>
       <c r="M491" s="20" t="n"/>
       <c r="N491" s="20" t="n"/>
       <c r="O491" s="20" t="n"/>
@@ -25857,17 +25910,46 @@
       <c r="Q491" s="20" t="n"/>
     </row>
     <row r="492">
-      <c r="A492" s="18" t="n"/>
-      <c r="B492" s="18" t="n"/>
-      <c r="C492" s="18" t="n"/>
-      <c r="D492" s="18" t="n"/>
+      <c r="A492" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B492" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C492" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D492" s="18" t="inlineStr">
+        <is>
+          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
+        </is>
+      </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="n"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H492" s="18" t="n"/>
-      <c r="I492" s="13" t="n"/>
+      <c r="I492" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J492" s="13" t="n"/>
       <c r="K492" s="19" t="n"/>
-      <c r="L492" s="19" t="n"/>
+      <c r="L492" s="19" t="inlineStr">
+        <is>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+        </is>
+      </c>
       <c r="M492" s="20" t="n"/>
       <c r="N492" s="20" t="n"/>
       <c r="O492" s="20" t="n"/>
@@ -25875,17 +25957,46 @@
       <c r="Q492" s="20" t="n"/>
     </row>
     <row r="493">
-      <c r="A493" s="18" t="n"/>
-      <c r="B493" s="18" t="n"/>
-      <c r="C493" s="18" t="n"/>
-      <c r="D493" s="18" t="n"/>
+      <c r="A493" s="18" t="inlineStr">
+        <is>
+          <t>Redis Resiliency checklist</t>
+        </is>
+      </c>
+      <c r="B493" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C493" s="18" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="D493" s="18" t="inlineStr">
+        <is>
+          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+        </is>
+      </c>
       <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="n"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H493" s="18" t="n"/>
-      <c r="I493" s="13" t="n"/>
+      <c r="I493" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J493" s="13" t="n"/>
       <c r="K493" s="19" t="n"/>
-      <c r="L493" s="19" t="n"/>
+      <c r="L493" s="19" t="inlineStr">
+        <is>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+        </is>
+      </c>
       <c r="M493" s="20" t="n"/>
       <c r="N493" s="20" t="n"/>
       <c r="O493" s="20" t="n"/>
@@ -38853,7 +38964,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G491" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G494" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -39156,9 +39267,9 @@
     <hyperlink ref="I305" r:id="rId296"/>
     <hyperlink ref="I306" r:id="rId297"/>
     <hyperlink ref="I307" r:id="rId298"/>
-    <hyperlink ref="I309" r:id="rId299"/>
-    <hyperlink ref="I310" r:id="rId300"/>
-    <hyperlink ref="I311" r:id="rId301"/>
+    <hyperlink ref="I308" r:id="rId299"/>
+    <hyperlink ref="I309" r:id="rId300"/>
+    <hyperlink ref="I310" r:id="rId301"/>
     <hyperlink ref="I312" r:id="rId302"/>
     <hyperlink ref="I313" r:id="rId303"/>
     <hyperlink ref="I314" r:id="rId304"/>
@@ -39181,9 +39292,9 @@
     <hyperlink ref="I331" r:id="rId321"/>
     <hyperlink ref="I332" r:id="rId322"/>
     <hyperlink ref="I333" r:id="rId323"/>
-    <hyperlink ref="I335" r:id="rId324"/>
-    <hyperlink ref="I336" r:id="rId325"/>
-    <hyperlink ref="I337" r:id="rId326"/>
+    <hyperlink ref="I334" r:id="rId324"/>
+    <hyperlink ref="I335" r:id="rId325"/>
+    <hyperlink ref="I336" r:id="rId326"/>
     <hyperlink ref="I338" r:id="rId327"/>
     <hyperlink ref="I339" r:id="rId328"/>
     <hyperlink ref="I340" r:id="rId329"/>
@@ -39228,12 +39339,12 @@
     <hyperlink ref="I379" r:id="rId368"/>
     <hyperlink ref="I380" r:id="rId369"/>
     <hyperlink ref="I381" r:id="rId370"/>
-    <hyperlink ref="I392" r:id="rId371"/>
-    <hyperlink ref="I474" r:id="rId372"/>
-    <hyperlink ref="I475" r:id="rId373"/>
-    <hyperlink ref="I479" r:id="rId374"/>
-    <hyperlink ref="I480" r:id="rId375"/>
-    <hyperlink ref="I481" r:id="rId376"/>
+    <hyperlink ref="I382" r:id="rId371"/>
+    <hyperlink ref="I383" r:id="rId372"/>
+    <hyperlink ref="I384" r:id="rId373"/>
+    <hyperlink ref="I395" r:id="rId374"/>
+    <hyperlink ref="I477" r:id="rId375"/>
+    <hyperlink ref="I478" r:id="rId376"/>
     <hyperlink ref="I482" r:id="rId377"/>
     <hyperlink ref="I483" r:id="rId378"/>
     <hyperlink ref="I484" r:id="rId379"/>
@@ -39243,6 +39354,9 @@
     <hyperlink ref="I488" r:id="rId383"/>
     <hyperlink ref="I489" r:id="rId384"/>
     <hyperlink ref="I490" r:id="rId385"/>
+    <hyperlink ref="I491" r:id="rId386"/>
+    <hyperlink ref="I492" r:id="rId387"/>
+    <hyperlink ref="I493" r:id="rId388"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
